--- a/descritores/lbp/20 camadas/Pasta1.xlsx
+++ b/descritores/lbp/20 camadas/Pasta1.xlsx
@@ -42,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +55,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,10 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,11 +617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190542592"/>
-        <c:axId val="190544512"/>
+        <c:axId val="191582592"/>
+        <c:axId val="191584128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190542592"/>
+        <c:axId val="191582592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,7 +630,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190544512"/>
+        <c:crossAx val="191584128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -632,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190544512"/>
+        <c:axId val="191584128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,13 +668,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190542592"/>
+        <c:crossAx val="191582592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -849,11 +855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190565376"/>
-        <c:axId val="190456576"/>
+        <c:axId val="191609088"/>
+        <c:axId val="191500288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190565376"/>
+        <c:axId val="191609088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190456576"/>
+        <c:crossAx val="191500288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -870,7 +876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190456576"/>
+        <c:axId val="191500288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190565376"/>
+        <c:crossAx val="191609088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1069,11 +1075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190484864"/>
-        <c:axId val="190486400"/>
+        <c:axId val="191511936"/>
+        <c:axId val="191526016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190484864"/>
+        <c:axId val="191511936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190486400"/>
+        <c:crossAx val="191526016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1090,7 +1096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190486400"/>
+        <c:axId val="191526016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190484864"/>
+        <c:crossAx val="191511936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1232,11 +1238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191215872"/>
-        <c:axId val="191225856"/>
+        <c:axId val="192189952"/>
+        <c:axId val="192191488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191215872"/>
+        <c:axId val="192189952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1252,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191225856"/>
+        <c:crossAx val="192191488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1254,7 +1260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191225856"/>
+        <c:axId val="192191488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1271,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191215872"/>
+        <c:crossAx val="192189952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1274,6 +1280,19 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1383,11 +1402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191108608"/>
-        <c:axId val="191110144"/>
+        <c:axId val="191832448"/>
+        <c:axId val="191833984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191108608"/>
+        <c:axId val="191832448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191110144"/>
+        <c:crossAx val="191833984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1405,7 +1424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191110144"/>
+        <c:axId val="191833984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191108608"/>
+        <c:crossAx val="191832448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1425,6 +1444,19 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1664,11 +1696,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191237504"/>
-        <c:axId val="191239296"/>
+        <c:axId val="192171392"/>
+        <c:axId val="192173184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191237504"/>
+        <c:axId val="192171392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +1710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191239296"/>
+        <c:crossAx val="192173184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1686,7 +1718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191239296"/>
+        <c:axId val="192173184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,13 +1730,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191237504"/>
+        <c:crossAx val="192171392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1712,6 +1744,158 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Erros por Epocas'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Erros por Epocas'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8461538461500001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8461538461500001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7692307692299997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1538461538500006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="191918848"/>
+        <c:axId val="191920384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="191918848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="191920384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="191920384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="191918848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1907,12 +2091,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TabelaCurvaPerda" displayName="TabelaCurvaPerda" ref="A1:B33" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:B33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TabelaCurvaPerda" displayName="TabelaCurvaPerda" ref="A1:B43" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:B43"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Melhor caso" dataDxfId="11"/>
     <tableColumn id="2" name="Pior caso" dataDxfId="10"/>
@@ -2221,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2493,20 +2707,44 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2523,7 +2761,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
